--- a/工作加班调休表.xlsx
+++ b/工作加班调休表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="13125" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="13125" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="2022-11" sheetId="1" r:id="rId1"/>
-    <sheet name="2022-12" sheetId="2" r:id="rId2"/>
-    <sheet name="2022-08" sheetId="3" r:id="rId3"/>
+    <sheet name="2022-08" sheetId="3" r:id="rId1"/>
+    <sheet name="2022-11" sheetId="1" r:id="rId2"/>
+    <sheet name="2023-04" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -27,12 +27,45 @@
     <t xml:space="preserve"> 调休状态</t>
   </si>
   <si>
+    <t>2022/08/2 19:00-24:00</t>
+  </si>
+  <si>
+    <t>未调休</t>
+  </si>
+  <si>
+    <t>2022/08/3 19:00-23:00</t>
+  </si>
+  <si>
+    <t>2022/08/9 19:00-23:00</t>
+  </si>
+  <si>
+    <t>2022/08/10 19:00-21:00</t>
+  </si>
+  <si>
+    <t>2022/08/17 19:00-21:00</t>
+  </si>
+  <si>
+    <t>2022/08/19 19:00-21:00</t>
+  </si>
+  <si>
+    <t>2022/08/20 8:00-21:00</t>
+  </si>
+  <si>
+    <t>2022/08/21 8:30-22:00</t>
+  </si>
+  <si>
+    <t>2022/08/27 8:30-18:00</t>
+  </si>
+  <si>
+    <t>2022/08/29 19:00-21:00</t>
+  </si>
+  <si>
+    <t>5天</t>
+  </si>
+  <si>
     <t>2022/11/1 19:00-01:00</t>
   </si>
   <si>
-    <t>未调休</t>
-  </si>
-  <si>
     <t>2022/11/5 19:00-21:00</t>
   </si>
   <si>
@@ -51,50 +84,39 @@
     <t>2天2小时</t>
   </si>
   <si>
-    <t>2022/08/2 19:00-24:00</t>
-  </si>
-  <si>
-    <t>2022/08/3 19:00-23:00</t>
-  </si>
-  <si>
-    <t>2022/08/9 19:00-23:00</t>
-  </si>
-  <si>
-    <t>2022/08/10 19:00-21:00</t>
-  </si>
-  <si>
-    <t>2022/08/17 19:00-21:00</t>
-  </si>
-  <si>
-    <t>2022/08/19 19:00-21:00</t>
-  </si>
-  <si>
-    <t>2022/08/20 8:00-21:00</t>
-  </si>
-  <si>
-    <t>2022/08/21 8:30-22:00</t>
-  </si>
-  <si>
-    <t>2022/08/27 8:30-18:00</t>
-  </si>
-  <si>
-    <t>2022/08/29 19:00-21:00</t>
-  </si>
-  <si>
-    <t>5天</t>
+    <t>截止3月底，剩余调休时间 3 天整</t>
+  </si>
+  <si>
+    <t>2023/4/7 18:00-21:00</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>2023/4/17 13：30-18：00</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>调休</t>
+  </si>
+  <si>
+    <t>剩余调休2.75天</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy/m/d\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +140,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -262,12 +305,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -570,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,137 +631,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,6 +769,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1044,134 +1105,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="12.3416666666667" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1194,8 +1130,8 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
+      <c r="A2" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1206,7 +1142,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1217,7 +1153,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1228,7 +1164,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1239,7 +1175,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1250,7 +1186,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1261,7 +1197,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1272,7 +1208,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1283,7 +1219,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1294,7 +1230,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1311,11 +1247,190 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="12.3416666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="3:3">
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/工作加班调休表.xlsx
+++ b/工作加班调休表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13125" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="13125" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2022-08" sheetId="3" r:id="rId1"/>
     <sheet name="2022-11" sheetId="1" r:id="rId2"/>
     <sheet name="2023-04" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -103,6 +104,15 @@
   </si>
   <si>
     <t>剩余调休2.75天</t>
+  </si>
+  <si>
+    <t>截止5月底，剩余调休时间 2.75 天整</t>
+  </si>
+  <si>
+    <t>2023/6/17 13：30-18：00</t>
+  </si>
+  <si>
+    <t>剩余调休2.25天</t>
   </si>
 </sst>
 </file>
@@ -777,10 +787,10 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1370,8 +1380,8 @@
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="$A1:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1400,7 +1410,7 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
@@ -1422,8 +1432,67 @@
       </c>
     </row>
     <row r="14" ht="14.25" spans="3:3">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="31" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="3:3">
+      <c r="C13" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
